--- a/TP.xlsx
+++ b/TP.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
